--- a/techniqo/data_new_ticker/RVNL.xlsx
+++ b/techniqo/data_new_ticker/RVNL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12741,6 +12741,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C354" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D354" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1429561</v>
+      </c>
+      <c r="G354" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C355" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D355" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="E355" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F355" t="n">
+        <v>1296923</v>
+      </c>
+      <c r="G355" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/RVNL.xlsx
+++ b/techniqo/data_new_ticker/RVNL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12791,6 +12791,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C356" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D356" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E356" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1659450</v>
+      </c>
+      <c r="G356" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="C357" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E357" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="F357" t="n">
+        <v>2961124</v>
+      </c>
+      <c r="G357" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
